--- a/high_pain_text.xlsx
+++ b/high_pain_text.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7 Shield/code/301/CSMD/CSMD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F6A28-839B-5340-9D89-8F267DDBE1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78139FC-D962-1D4C-94BA-ECEE0AC087E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18040" yWindow="500" windowWidth="20360" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疼痛程度高的（术前vas&amp;gt;=3）" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'[1]疼痛程度高的（术前vas&gt;=3）'!$B$1:$S$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'疼痛程度高的（术前vas&amp;gt;=3）'!$A$1:$N$278</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -46,9 +43,6 @@
     <t>2C6-7</t>
   </si>
   <si>
-    <t>2C7-1</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -892,10 +886,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Cervical radiculopathy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>VAS score-neck(Preoperative)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -905,6 +895,14 @@
   </si>
   <si>
     <t>VAS score-neck（1 year postoperative）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cervical spondylotic radiculopathy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C7-1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1054,19 +1052,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="疼痛程度高的（术前vas&gt;=3）"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,7 +1345,7 @@
   <dimension ref="A1:N278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1369,10 +1354,11 @@
     <col min="2" max="2" width="5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="32" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="8" customWidth="1"/>
+    <col min="9" max="13" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1381,22 +1367,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -1413,16 +1399,16 @@
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
+      <c r="M1" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>66</v>
@@ -1466,7 +1452,7 @@
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>53</v>
@@ -1510,7 +1496,7 @@
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>59</v>
@@ -1554,7 +1540,7 @@
     </row>
     <row r="5" spans="1:14" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>51</v>
@@ -1598,7 +1584,7 @@
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>51</v>
@@ -1642,7 +1628,7 @@
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>48</v>
@@ -1686,7 +1672,7 @@
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <v>67</v>
@@ -1730,7 +1716,7 @@
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4">
         <v>51</v>
@@ -1774,7 +1760,7 @@
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>33</v>
@@ -1818,7 +1804,7 @@
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>66</v>
@@ -1862,7 +1848,7 @@
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <v>59</v>
@@ -1906,7 +1892,7 @@
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>54</v>
@@ -1950,7 +1936,7 @@
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>64</v>
@@ -1994,7 +1980,7 @@
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>66</v>
@@ -2038,7 +2024,7 @@
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4">
         <v>57</v>
@@ -2082,7 +2068,7 @@
     </row>
     <row r="17" spans="1:14" ht="21.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>56</v>
@@ -2126,7 +2112,7 @@
     </row>
     <row r="18" spans="1:14" ht="21.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>58</v>
@@ -2170,7 +2156,7 @@
     </row>
     <row r="19" spans="1:14" ht="21.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>70</v>
@@ -2214,7 +2200,7 @@
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>73</v>
@@ -2258,7 +2244,7 @@
     </row>
     <row r="21" spans="1:14" ht="21.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>62</v>
@@ -2302,7 +2288,7 @@
     </row>
     <row r="22" spans="1:14" ht="21.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4">
         <v>58</v>
@@ -2346,7 +2332,7 @@
     </row>
     <row r="23" spans="1:14" ht="20.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4">
         <v>65</v>
@@ -2390,7 +2376,7 @@
     </row>
     <row r="24" spans="1:14" ht="20.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4">
         <v>53</v>
@@ -2434,7 +2420,7 @@
     </row>
     <row r="25" spans="1:14" ht="20.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4">
         <v>50</v>
@@ -2478,7 +2464,7 @@
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4">
         <v>65</v>
@@ -2522,7 +2508,7 @@
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4">
         <v>53</v>
@@ -2566,7 +2552,7 @@
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4">
         <v>42</v>
@@ -2610,7 +2596,7 @@
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4">
         <v>33</v>
@@ -2654,7 +2640,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4">
         <v>47</v>
@@ -2698,7 +2684,7 @@
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4">
         <v>53</v>
@@ -2742,7 +2728,7 @@
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4">
         <v>67</v>
@@ -2786,7 +2772,7 @@
     </row>
     <row r="33" spans="1:14" ht="18" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4">
         <v>59</v>
@@ -2830,7 +2816,7 @@
     </row>
     <row r="34" spans="1:14" ht="18" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4">
         <v>56</v>
@@ -2874,7 +2860,7 @@
     </row>
     <row r="35" spans="1:14" ht="18" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
         <v>41</v>
@@ -2918,7 +2904,7 @@
     </row>
     <row r="36" spans="1:14" ht="18" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4">
         <v>50</v>
@@ -2962,7 +2948,7 @@
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4">
         <v>66</v>
@@ -3006,7 +2992,7 @@
     </row>
     <row r="38" spans="1:14" ht="18" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4">
         <v>47</v>
@@ -3050,7 +3036,7 @@
     </row>
     <row r="39" spans="1:14" ht="18" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="4">
         <v>37</v>
@@ -3094,7 +3080,7 @@
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4">
         <v>58</v>
@@ -3138,7 +3124,7 @@
     </row>
     <row r="41" spans="1:14" ht="18" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4">
         <v>80</v>
@@ -3182,7 +3168,7 @@
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4">
         <v>81</v>
@@ -3226,7 +3212,7 @@
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4">
         <v>70</v>
@@ -3270,7 +3256,7 @@
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="4">
         <v>51</v>
@@ -3314,7 +3300,7 @@
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4">
         <v>63</v>
@@ -3358,7 +3344,7 @@
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4">
         <v>39</v>
@@ -3402,7 +3388,7 @@
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4">
         <v>57</v>
@@ -3446,7 +3432,7 @@
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4">
         <v>52</v>
@@ -3490,7 +3476,7 @@
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="4">
         <v>66</v>
@@ -3534,7 +3520,7 @@
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4">
         <v>61</v>
@@ -3578,7 +3564,7 @@
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="4">
         <v>34</v>
@@ -3622,7 +3608,7 @@
     </row>
     <row r="52" spans="1:14" ht="18" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4">
         <v>48</v>
@@ -3666,7 +3652,7 @@
     </row>
     <row r="53" spans="1:14" ht="18" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="4">
         <v>48</v>
@@ -3710,7 +3696,7 @@
     </row>
     <row r="54" spans="1:14" ht="18" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="4">
         <v>49</v>
@@ -3754,7 +3740,7 @@
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="4">
         <v>65</v>
@@ -3798,7 +3784,7 @@
     </row>
     <row r="56" spans="1:14" ht="18" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4">
         <v>58</v>
@@ -3842,7 +3828,7 @@
     </row>
     <row r="57" spans="1:14" ht="18" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="4">
         <v>68</v>
@@ -3886,7 +3872,7 @@
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4">
         <v>29</v>
@@ -3930,7 +3916,7 @@
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4">
         <v>64</v>
@@ -3974,7 +3960,7 @@
     </row>
     <row r="60" spans="1:14" ht="18" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="4">
         <v>47</v>
@@ -4018,7 +4004,7 @@
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4">
         <v>69</v>
@@ -4062,7 +4048,7 @@
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4">
         <v>57</v>
@@ -4106,7 +4092,7 @@
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="4">
         <v>75</v>
@@ -4150,7 +4136,7 @@
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4">
         <v>63</v>
@@ -4194,7 +4180,7 @@
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="4">
         <v>58</v>
@@ -4238,7 +4224,7 @@
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="4">
         <v>51</v>
@@ -4282,7 +4268,7 @@
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4">
         <v>50</v>
@@ -4326,7 +4312,7 @@
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4">
         <v>52</v>
@@ -4370,7 +4356,7 @@
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4">
         <v>68</v>
@@ -4414,7 +4400,7 @@
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="4">
         <v>47</v>
@@ -4458,7 +4444,7 @@
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4">
         <v>66</v>
@@ -4502,7 +4488,7 @@
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4">
         <v>56</v>
@@ -4546,7 +4532,7 @@
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4">
         <v>49</v>
@@ -4590,7 +4576,7 @@
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4">
         <v>58</v>
@@ -4634,7 +4620,7 @@
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4">
         <v>42</v>
@@ -4678,7 +4664,7 @@
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4">
         <v>50</v>
@@ -4722,7 +4708,7 @@
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4">
         <v>58</v>
@@ -4766,7 +4752,7 @@
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4">
         <v>47</v>
@@ -4810,7 +4796,7 @@
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4">
         <v>46</v>
@@ -4854,7 +4840,7 @@
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4">
         <v>69</v>
@@ -4898,7 +4884,7 @@
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4">
         <v>75</v>
@@ -4942,7 +4928,7 @@
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4">
         <v>61</v>
@@ -4986,7 +4972,7 @@
     </row>
     <row r="83" spans="1:14" ht="18" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="4">
         <v>59</v>
@@ -5030,7 +5016,7 @@
     </row>
     <row r="84" spans="1:14" ht="18" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4">
         <v>55</v>
@@ -5074,7 +5060,7 @@
     </row>
     <row r="85" spans="1:14" ht="18" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4">
         <v>39</v>
@@ -5118,7 +5104,7 @@
     </row>
     <row r="86" spans="1:14" ht="18" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4">
         <v>57</v>
@@ -5162,7 +5148,7 @@
     </row>
     <row r="87" spans="1:14" ht="18" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="4">
         <v>69</v>
@@ -5206,7 +5192,7 @@
     </row>
     <row r="88" spans="1:14" ht="18" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4">
         <v>57</v>
@@ -5250,7 +5236,7 @@
     </row>
     <row r="89" spans="1:14" ht="18" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4">
         <v>58</v>
@@ -5294,7 +5280,7 @@
     </row>
     <row r="90" spans="1:14" ht="18" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="4">
         <v>61</v>
@@ -5338,7 +5324,7 @@
     </row>
     <row r="91" spans="1:14" ht="18" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="4">
         <v>60</v>
@@ -5382,7 +5368,7 @@
     </row>
     <row r="92" spans="1:14" ht="18" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4">
         <v>46</v>
@@ -5426,7 +5412,7 @@
     </row>
     <row r="93" spans="1:14" ht="18" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="4">
         <v>45</v>
@@ -5470,7 +5456,7 @@
     </row>
     <row r="94" spans="1:14" ht="18" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="4">
         <v>74</v>
@@ -5514,7 +5500,7 @@
     </row>
     <row r="95" spans="1:14" ht="18" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="4">
         <v>33</v>
@@ -5558,7 +5544,7 @@
     </row>
     <row r="96" spans="1:14" ht="18" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4">
         <v>43</v>
@@ -5602,7 +5588,7 @@
     </row>
     <row r="97" spans="1:14" ht="18" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="4">
         <v>41</v>
@@ -5646,7 +5632,7 @@
     </row>
     <row r="98" spans="1:14" ht="18" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4">
         <v>55</v>
@@ -5690,7 +5676,7 @@
     </row>
     <row r="99" spans="1:14" ht="18" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4">
         <v>50</v>
@@ -5734,7 +5720,7 @@
     </row>
     <row r="100" spans="1:14" ht="18" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4">
         <v>43</v>
@@ -5778,7 +5764,7 @@
     </row>
     <row r="101" spans="1:14" ht="18" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4">
         <v>70</v>
@@ -5822,7 +5808,7 @@
     </row>
     <row r="102" spans="1:14" ht="18" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4">
         <v>63</v>
@@ -5866,7 +5852,7 @@
     </row>
     <row r="103" spans="1:14" ht="18" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4">
         <v>47</v>
@@ -5910,7 +5896,7 @@
     </row>
     <row r="104" spans="1:14" ht="18" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4">
         <v>40</v>
@@ -5954,7 +5940,7 @@
     </row>
     <row r="105" spans="1:14" ht="18" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="4">
         <v>51</v>
@@ -5998,7 +5984,7 @@
     </row>
     <row r="106" spans="1:14" ht="18" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4">
         <v>55</v>
@@ -6042,7 +6028,7 @@
     </row>
     <row r="107" spans="1:14" ht="18" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="4">
         <v>44</v>
@@ -6086,7 +6072,7 @@
     </row>
     <row r="108" spans="1:14" ht="18" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="4">
         <v>64</v>
@@ -6130,7 +6116,7 @@
     </row>
     <row r="109" spans="1:14" ht="18" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="4">
         <v>43</v>
@@ -6174,7 +6160,7 @@
     </row>
     <row r="110" spans="1:14" ht="18" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="4">
         <v>75</v>
@@ -6218,7 +6204,7 @@
     </row>
     <row r="111" spans="1:14" ht="18" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="4">
         <v>51</v>
@@ -6262,7 +6248,7 @@
     </row>
     <row r="112" spans="1:14" ht="18" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="4">
         <v>74</v>
@@ -6306,7 +6292,7 @@
     </row>
     <row r="113" spans="1:14" ht="18" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="4">
         <v>49</v>
@@ -6350,7 +6336,7 @@
     </row>
     <row r="114" spans="1:14" ht="18" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="4">
         <v>49</v>
@@ -6394,7 +6380,7 @@
     </row>
     <row r="115" spans="1:14" ht="18" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="4">
         <v>44</v>
@@ -6438,7 +6424,7 @@
     </row>
     <row r="116" spans="1:14" ht="18" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="4">
         <v>74</v>
@@ -6482,7 +6468,7 @@
     </row>
     <row r="117" spans="1:14" ht="18" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="4">
         <v>56</v>
@@ -6526,7 +6512,7 @@
     </row>
     <row r="118" spans="1:14" ht="18" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="4">
         <v>51</v>
@@ -6570,7 +6556,7 @@
     </row>
     <row r="119" spans="1:14" ht="18" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="4">
         <v>43</v>
@@ -6614,7 +6600,7 @@
     </row>
     <row r="120" spans="1:14" ht="18" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="4">
         <v>65</v>
@@ -6658,7 +6644,7 @@
     </row>
     <row r="121" spans="1:14" ht="18" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="4">
         <v>59</v>
@@ -6702,7 +6688,7 @@
     </row>
     <row r="122" spans="1:14" ht="18" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="4">
         <v>48</v>
@@ -6746,7 +6732,7 @@
     </row>
     <row r="123" spans="1:14" ht="18" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="4">
         <v>50</v>
@@ -6790,7 +6776,7 @@
     </row>
     <row r="124" spans="1:14" ht="18" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" s="4">
         <v>47</v>
@@ -6834,7 +6820,7 @@
     </row>
     <row r="125" spans="1:14" ht="18" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" s="4">
         <v>57</v>
@@ -6878,7 +6864,7 @@
     </row>
     <row r="126" spans="1:14" ht="18" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4">
         <v>64</v>
@@ -6922,7 +6908,7 @@
     </row>
     <row r="127" spans="1:14" ht="18" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4">
         <v>52</v>
@@ -6966,7 +6952,7 @@
     </row>
     <row r="128" spans="1:14" ht="18" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4">
         <v>50</v>
@@ -7010,7 +6996,7 @@
     </row>
     <row r="129" spans="1:14" ht="18" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="4">
         <v>76</v>
@@ -7054,7 +7040,7 @@
     </row>
     <row r="130" spans="1:14" ht="18" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" s="4">
         <v>69</v>
@@ -7098,7 +7084,7 @@
     </row>
     <row r="131" spans="1:14" ht="18" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" s="4">
         <v>70</v>
@@ -7142,7 +7128,7 @@
     </row>
     <row r="132" spans="1:14" ht="18" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B132" s="4">
         <v>52</v>
@@ -7186,7 +7172,7 @@
     </row>
     <row r="133" spans="1:14" ht="18" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B133" s="4">
         <v>49</v>
@@ -7230,7 +7216,7 @@
     </row>
     <row r="134" spans="1:14" ht="18" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" s="4">
         <v>59</v>
@@ -7274,7 +7260,7 @@
     </row>
     <row r="135" spans="1:14" ht="18" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B135" s="4">
         <v>47</v>
@@ -7318,7 +7304,7 @@
     </row>
     <row r="136" spans="1:14" ht="18" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" s="4">
         <v>49</v>
@@ -7362,7 +7348,7 @@
     </row>
     <row r="137" spans="1:14" ht="18" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137" s="4">
         <v>45</v>
@@ -7406,7 +7392,7 @@
     </row>
     <row r="138" spans="1:14" ht="18" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138" s="4">
         <v>44</v>
@@ -7450,7 +7436,7 @@
     </row>
     <row r="139" spans="1:14" ht="18" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" s="4">
         <v>70</v>
@@ -7494,7 +7480,7 @@
     </row>
     <row r="140" spans="1:14" ht="18" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" s="4">
         <v>57</v>
@@ -7538,7 +7524,7 @@
     </row>
     <row r="141" spans="1:14" ht="18" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141" s="4">
         <v>33</v>
@@ -7582,7 +7568,7 @@
     </row>
     <row r="142" spans="1:14" ht="18" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B142" s="4">
         <v>42</v>
@@ -7626,7 +7612,7 @@
     </row>
     <row r="143" spans="1:14" ht="18" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4">
         <v>42</v>
@@ -7670,7 +7656,7 @@
     </row>
     <row r="144" spans="1:14" ht="18" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4">
         <v>50</v>
@@ -7714,7 +7700,7 @@
     </row>
     <row r="145" spans="1:14" ht="18" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" s="4">
         <v>52</v>
@@ -7758,7 +7744,7 @@
     </row>
     <row r="146" spans="1:14" ht="18" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146" s="4">
         <v>69</v>
@@ -7802,7 +7788,7 @@
     </row>
     <row r="147" spans="1:14" ht="18" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4">
         <v>30</v>
@@ -7846,7 +7832,7 @@
     </row>
     <row r="148" spans="1:14" ht="18" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148" s="4">
         <v>52</v>
@@ -7890,7 +7876,7 @@
     </row>
     <row r="149" spans="1:14" ht="18" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" s="4">
         <v>41</v>
@@ -7934,7 +7920,7 @@
     </row>
     <row r="150" spans="1:14" ht="18" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4">
         <v>38</v>
@@ -7978,7 +7964,7 @@
     </row>
     <row r="151" spans="1:14" ht="18" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151" s="4">
         <v>61</v>
@@ -8022,7 +8008,7 @@
     </row>
     <row r="152" spans="1:14" ht="18" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B152" s="4">
         <v>43</v>
@@ -8066,7 +8052,7 @@
     </row>
     <row r="153" spans="1:14" ht="18" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="4">
         <v>59</v>
@@ -8110,7 +8096,7 @@
     </row>
     <row r="154" spans="1:14" ht="18" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" s="4">
         <v>43</v>
@@ -8154,7 +8140,7 @@
     </row>
     <row r="155" spans="1:14" ht="18" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B155" s="4">
         <v>46</v>
@@ -8198,7 +8184,7 @@
     </row>
     <row r="156" spans="1:14" ht="18" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="4">
         <v>71</v>
@@ -8242,7 +8228,7 @@
     </row>
     <row r="157" spans="1:14" ht="18" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157" s="4">
         <v>60</v>
@@ -8286,7 +8272,7 @@
     </row>
     <row r="158" spans="1:14" ht="18" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" s="4">
         <v>57</v>
@@ -8330,7 +8316,7 @@
     </row>
     <row r="159" spans="1:14" ht="18" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" s="4">
         <v>64</v>
@@ -8374,7 +8360,7 @@
     </row>
     <row r="160" spans="1:14" ht="18" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160" s="4">
         <v>55</v>
@@ -8418,7 +8404,7 @@
     </row>
     <row r="161" spans="1:14" ht="18" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" s="4">
         <v>37</v>
@@ -8462,7 +8448,7 @@
     </row>
     <row r="162" spans="1:14" ht="18" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B162" s="4">
         <v>50</v>
@@ -8506,7 +8492,7 @@
     </row>
     <row r="163" spans="1:14" ht="18" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B163" s="4">
         <v>36</v>
@@ -8550,7 +8536,7 @@
     </row>
     <row r="164" spans="1:14" ht="18" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" s="4">
         <v>51</v>
@@ -8594,7 +8580,7 @@
     </row>
     <row r="165" spans="1:14" ht="18" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165" s="4">
         <v>55</v>
@@ -8638,7 +8624,7 @@
     </row>
     <row r="166" spans="1:14" ht="18" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B166" s="4">
         <v>65</v>
@@ -8682,7 +8668,7 @@
     </row>
     <row r="167" spans="1:14" ht="18" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" s="4">
         <v>70</v>
@@ -8726,7 +8712,7 @@
     </row>
     <row r="168" spans="1:14" ht="18" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" s="4">
         <v>44</v>
@@ -8770,7 +8756,7 @@
     </row>
     <row r="169" spans="1:14" ht="18" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169" s="4">
         <v>61</v>
@@ -8814,7 +8800,7 @@
     </row>
     <row r="170" spans="1:14" ht="18" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170" s="4">
         <v>63</v>
@@ -8858,7 +8844,7 @@
     </row>
     <row r="171" spans="1:14" ht="18" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171" s="4">
         <v>36</v>
@@ -8902,7 +8888,7 @@
     </row>
     <row r="172" spans="1:14" ht="18" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172" s="4">
         <v>70</v>
@@ -8946,7 +8932,7 @@
     </row>
     <row r="173" spans="1:14" ht="18" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173" s="4">
         <v>60</v>
@@ -8990,7 +8976,7 @@
     </row>
     <row r="174" spans="1:14" ht="18" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B174" s="4">
         <v>62</v>
@@ -9034,7 +9020,7 @@
     </row>
     <row r="175" spans="1:14" ht="18" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B175" s="4">
         <v>54</v>
@@ -9078,7 +9064,7 @@
     </row>
     <row r="176" spans="1:14" ht="18" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B176" s="4">
         <v>42</v>
@@ -9122,7 +9108,7 @@
     </row>
     <row r="177" spans="1:14" ht="18" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B177" s="4">
         <v>64</v>
@@ -9166,7 +9152,7 @@
     </row>
     <row r="178" spans="1:14" ht="18" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B178" s="4">
         <v>37</v>
@@ -9210,7 +9196,7 @@
     </row>
     <row r="179" spans="1:14" ht="18" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B179" s="4">
         <v>62</v>
@@ -9254,7 +9240,7 @@
     </row>
     <row r="180" spans="1:14" ht="18" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B180" s="4">
         <v>46</v>
@@ -9298,7 +9284,7 @@
     </row>
     <row r="181" spans="1:14" ht="18" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B181" s="4">
         <v>55</v>
@@ -9342,7 +9328,7 @@
     </row>
     <row r="182" spans="1:14" ht="18" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B182" s="4">
         <v>46</v>
@@ -9386,7 +9372,7 @@
     </row>
     <row r="183" spans="1:14" ht="18" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B183" s="4">
         <v>52</v>
@@ -9430,7 +9416,7 @@
     </row>
     <row r="184" spans="1:14" ht="18" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B184" s="4">
         <v>59</v>
@@ -9474,7 +9460,7 @@
     </row>
     <row r="185" spans="1:14" ht="18" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B185" s="4">
         <v>66</v>
@@ -9518,7 +9504,7 @@
     </row>
     <row r="186" spans="1:14" ht="18" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B186" s="4">
         <v>57</v>
@@ -9562,7 +9548,7 @@
     </row>
     <row r="187" spans="1:14" ht="18" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B187" s="4">
         <v>64</v>
@@ -9606,7 +9592,7 @@
     </row>
     <row r="188" spans="1:14" ht="18" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B188" s="4">
         <v>57</v>
@@ -9650,7 +9636,7 @@
     </row>
     <row r="189" spans="1:14" ht="18" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B189" s="4">
         <v>56</v>
@@ -9694,7 +9680,7 @@
     </row>
     <row r="190" spans="1:14" ht="18" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" s="4">
         <v>62</v>
@@ -9738,7 +9724,7 @@
     </row>
     <row r="191" spans="1:14" ht="18" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B191" s="4">
         <v>56</v>
@@ -9782,7 +9768,7 @@
     </row>
     <row r="192" spans="1:14" ht="18" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B192" s="4">
         <v>53</v>
@@ -9826,7 +9812,7 @@
     </row>
     <row r="193" spans="1:14" ht="18" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B193" s="4">
         <v>59</v>
@@ -9870,7 +9856,7 @@
     </row>
     <row r="194" spans="1:14" ht="18" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B194" s="4">
         <v>49</v>
@@ -9914,7 +9900,7 @@
     </row>
     <row r="195" spans="1:14" ht="18" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B195" s="4">
         <v>52</v>
@@ -9958,7 +9944,7 @@
     </row>
     <row r="196" spans="1:14" ht="18" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B196" s="4">
         <v>51</v>
@@ -10002,7 +9988,7 @@
     </row>
     <row r="197" spans="1:14" ht="18" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197" s="4">
         <v>49</v>
@@ -10046,7 +10032,7 @@
     </row>
     <row r="198" spans="1:14" ht="18" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B198" s="4">
         <v>64</v>
@@ -10090,7 +10076,7 @@
     </row>
     <row r="199" spans="1:14" ht="18" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199" s="4">
         <v>52</v>
@@ -10134,7 +10120,7 @@
     </row>
     <row r="200" spans="1:14" ht="18" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200" s="4">
         <v>51</v>
@@ -10178,7 +10164,7 @@
     </row>
     <row r="201" spans="1:14" ht="18" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B201" s="4">
         <v>68</v>
@@ -10222,7 +10208,7 @@
     </row>
     <row r="202" spans="1:14" ht="18" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B202" s="4">
         <v>72</v>
@@ -10266,7 +10252,7 @@
     </row>
     <row r="203" spans="1:14" ht="18" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B203" s="4">
         <v>67</v>
@@ -10310,7 +10296,7 @@
     </row>
     <row r="204" spans="1:14" ht="18" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B204" s="4">
         <v>47</v>
@@ -10354,7 +10340,7 @@
     </row>
     <row r="205" spans="1:14" ht="18" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B205" s="4">
         <v>56</v>
@@ -10398,7 +10384,7 @@
     </row>
     <row r="206" spans="1:14" ht="18" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B206" s="4">
         <v>71</v>
@@ -10442,7 +10428,7 @@
     </row>
     <row r="207" spans="1:14" ht="18" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207" s="4">
         <v>44</v>
@@ -10486,7 +10472,7 @@
     </row>
     <row r="208" spans="1:14" ht="18" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208" s="4">
         <v>58</v>
@@ -10530,7 +10516,7 @@
     </row>
     <row r="209" spans="1:14" ht="18" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209" s="4">
         <v>53</v>
@@ -10574,7 +10560,7 @@
     </row>
     <row r="210" spans="1:14" ht="18" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B210" s="4">
         <v>41</v>
@@ -10618,7 +10604,7 @@
     </row>
     <row r="211" spans="1:14" ht="18" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B211" s="4">
         <v>45</v>
@@ -10662,7 +10648,7 @@
     </row>
     <row r="212" spans="1:14" ht="18" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B212" s="4">
         <v>34</v>
@@ -10706,7 +10692,7 @@
     </row>
     <row r="213" spans="1:14" ht="18" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B213" s="4">
         <v>62</v>
@@ -10750,7 +10736,7 @@
     </row>
     <row r="214" spans="1:14" ht="18" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B214" s="4">
         <v>67</v>
@@ -10794,7 +10780,7 @@
     </row>
     <row r="215" spans="1:14" ht="18" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B215" s="4">
         <v>81</v>
@@ -10838,7 +10824,7 @@
     </row>
     <row r="216" spans="1:14" ht="18" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B216" s="4">
         <v>67</v>
@@ -10882,7 +10868,7 @@
     </row>
     <row r="217" spans="1:14" ht="18" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B217" s="4">
         <v>54</v>
@@ -10926,7 +10912,7 @@
     </row>
     <row r="218" spans="1:14" ht="18" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B218" s="4">
         <v>40</v>
@@ -10970,7 +10956,7 @@
     </row>
     <row r="219" spans="1:14" ht="18" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219" s="4">
         <v>47</v>
@@ -11014,7 +11000,7 @@
     </row>
     <row r="220" spans="1:14" ht="18" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B220" s="4">
         <v>41</v>
@@ -11058,7 +11044,7 @@
     </row>
     <row r="221" spans="1:14" ht="18" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B221" s="4">
         <v>57</v>
@@ -11102,7 +11088,7 @@
     </row>
     <row r="222" spans="1:14" ht="18" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" s="4">
         <v>65</v>
@@ -11146,7 +11132,7 @@
     </row>
     <row r="223" spans="1:14" ht="18" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B223" s="4">
         <v>42</v>
@@ -11190,7 +11176,7 @@
     </row>
     <row r="224" spans="1:14" ht="18" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B224" s="4">
         <v>53</v>
@@ -11234,7 +11220,7 @@
     </row>
     <row r="225" spans="1:14" ht="18" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B225" s="4">
         <v>67</v>
@@ -11278,7 +11264,7 @@
     </row>
     <row r="226" spans="1:14" ht="18" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226" s="4">
         <v>53</v>
@@ -11322,7 +11308,7 @@
     </row>
     <row r="227" spans="1:14" ht="18" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227" s="4">
         <v>56</v>
@@ -11366,7 +11352,7 @@
     </row>
     <row r="228" spans="1:14" ht="18" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228" s="4">
         <v>45</v>
@@ -11410,7 +11396,7 @@
     </row>
     <row r="229" spans="1:14" ht="18" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229" s="4">
         <v>57</v>
@@ -11454,7 +11440,7 @@
     </row>
     <row r="230" spans="1:14" ht="18" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230" s="4">
         <v>66</v>
@@ -11498,7 +11484,7 @@
     </row>
     <row r="231" spans="1:14" ht="18" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231" s="4">
         <v>69</v>
@@ -11542,7 +11528,7 @@
     </row>
     <row r="232" spans="1:14" ht="18" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232" s="4">
         <v>56</v>
@@ -11586,7 +11572,7 @@
     </row>
     <row r="233" spans="1:14" ht="18" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233" s="4">
         <v>43</v>
@@ -11630,7 +11616,7 @@
     </row>
     <row r="234" spans="1:14" ht="18" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234" s="4">
         <v>70</v>
@@ -11674,7 +11660,7 @@
     </row>
     <row r="235" spans="1:14" ht="18" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235" s="4">
         <v>60</v>
@@ -11718,7 +11704,7 @@
     </row>
     <row r="236" spans="1:14" ht="18" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236" s="4">
         <v>60</v>
@@ -11762,7 +11748,7 @@
     </row>
     <row r="237" spans="1:14" ht="18" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237" s="4">
         <v>51</v>
@@ -11806,7 +11792,7 @@
     </row>
     <row r="238" spans="1:14" ht="18" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B238" s="4">
         <v>81</v>
@@ -11850,7 +11836,7 @@
     </row>
     <row r="239" spans="1:14" ht="18" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239" s="4">
         <v>42</v>
@@ -11894,7 +11880,7 @@
     </row>
     <row r="240" spans="1:14" ht="18" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240" s="4">
         <v>64</v>
@@ -11938,7 +11924,7 @@
     </row>
     <row r="241" spans="1:14" ht="18" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B241" s="4">
         <v>46</v>
@@ -11982,7 +11968,7 @@
     </row>
     <row r="242" spans="1:14" ht="18" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B242" s="4">
         <v>38</v>
@@ -12026,7 +12012,7 @@
     </row>
     <row r="243" spans="1:14" ht="18" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B243" s="4">
         <v>57</v>
@@ -12070,7 +12056,7 @@
     </row>
     <row r="244" spans="1:14" ht="18" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="4">
         <v>55</v>
@@ -12114,7 +12100,7 @@
     </row>
     <row r="245" spans="1:14" ht="18" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="4">
         <v>52</v>
@@ -12158,7 +12144,7 @@
     </row>
     <row r="246" spans="1:14" ht="18" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B246" s="4">
         <v>40</v>
@@ -12202,7 +12188,7 @@
     </row>
     <row r="247" spans="1:14" ht="18" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B247" s="4">
         <v>49</v>
@@ -12246,7 +12232,7 @@
     </row>
     <row r="248" spans="1:14" ht="18" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B248" s="4">
         <v>40</v>
@@ -12290,7 +12276,7 @@
     </row>
     <row r="249" spans="1:14" ht="18" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="4">
         <v>42</v>
@@ -12334,7 +12320,7 @@
     </row>
     <row r="250" spans="1:14" ht="18" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="4">
         <v>49</v>
@@ -12378,7 +12364,7 @@
     </row>
     <row r="251" spans="1:14" ht="18" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B251" s="4">
         <v>68</v>
@@ -12422,7 +12408,7 @@
     </row>
     <row r="252" spans="1:14" ht="18" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B252" s="4">
         <v>64</v>
@@ -12466,7 +12452,7 @@
     </row>
     <row r="253" spans="1:14" ht="18" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253" s="4">
         <v>81</v>
@@ -12510,7 +12496,7 @@
     </row>
     <row r="254" spans="1:14" ht="18" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B254" s="4">
         <v>48</v>
@@ -12554,7 +12540,7 @@
     </row>
     <row r="255" spans="1:14" ht="18" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255" s="4">
         <v>58</v>
@@ -12598,7 +12584,7 @@
     </row>
     <row r="256" spans="1:14" ht="18" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B256" s="4">
         <v>59</v>
@@ -12642,7 +12628,7 @@
     </row>
     <row r="257" spans="1:14" ht="18" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B257" s="4">
         <v>50</v>
@@ -12686,7 +12672,7 @@
     </row>
     <row r="258" spans="1:14" ht="18" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B258" s="4">
         <v>44</v>
@@ -12730,7 +12716,7 @@
     </row>
     <row r="259" spans="1:14" ht="18" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B259" s="4">
         <v>52</v>
@@ -12774,7 +12760,7 @@
     </row>
     <row r="260" spans="1:14" ht="18" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B260" s="4">
         <v>77</v>
@@ -12818,7 +12804,7 @@
     </row>
     <row r="261" spans="1:14" ht="18" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B261" s="4">
         <v>48</v>
@@ -12862,7 +12848,7 @@
     </row>
     <row r="262" spans="1:14" ht="18" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B262" s="4">
         <v>52</v>
@@ -12906,7 +12892,7 @@
     </row>
     <row r="263" spans="1:14" ht="18" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B263" s="4">
         <v>48</v>
@@ -12950,7 +12936,7 @@
     </row>
     <row r="264" spans="1:14" ht="18" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B264" s="4">
         <v>47</v>
@@ -12994,7 +12980,7 @@
     </row>
     <row r="265" spans="1:14" ht="18" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B265" s="4">
         <v>48</v>
@@ -13038,7 +13024,7 @@
     </row>
     <row r="266" spans="1:14" ht="18" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B266" s="4">
         <v>59</v>
@@ -13082,7 +13068,7 @@
     </row>
     <row r="267" spans="1:14" ht="18" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B267" s="4">
         <v>50</v>
@@ -13126,7 +13112,7 @@
     </row>
     <row r="268" spans="1:14" ht="18" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B268" s="4">
         <v>54</v>
@@ -13170,7 +13156,7 @@
     </row>
     <row r="269" spans="1:14" ht="18" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B269" s="4">
         <v>63</v>
@@ -13214,7 +13200,7 @@
     </row>
     <row r="270" spans="1:14" ht="18" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B270" s="4">
         <v>70</v>
@@ -13258,7 +13244,7 @@
     </row>
     <row r="271" spans="1:14" ht="18" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B271" s="4">
         <v>56</v>
@@ -13302,7 +13288,7 @@
     </row>
     <row r="272" spans="1:14" ht="18" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B272" s="4">
         <v>48</v>
@@ -13346,7 +13332,7 @@
     </row>
     <row r="273" spans="1:14" ht="18" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B273" s="4">
         <v>56</v>
@@ -13390,7 +13376,7 @@
     </row>
     <row r="274" spans="1:14" ht="18" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B274" s="4">
         <v>50</v>
@@ -13434,7 +13420,7 @@
     </row>
     <row r="275" spans="1:14" ht="18" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B275" s="4">
         <v>43</v>
@@ -13478,7 +13464,7 @@
     </row>
     <row r="276" spans="1:14" ht="18" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B276" s="4">
         <v>48</v>
@@ -13522,7 +13508,7 @@
     </row>
     <row r="277" spans="1:14" ht="18" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B277" s="4">
         <v>55</v>
@@ -13566,7 +13552,7 @@
     </row>
     <row r="278" spans="1:14" ht="18" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B278" s="4">
         <v>52</v>
